--- a/LMSProject/DataFiles/LMSHackathan.xlsx
+++ b/LMSProject/DataFiles/LMSHackathan.xlsx
@@ -5,24 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\repository2\LMSProject\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EEC87E6-7635-43F5-8CAF-D69112D20028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179C4E7A-FC2F-4780-895D-61B0C2EFC0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Valid User Details" sheetId="1" r:id="rId1"/>
-    <sheet name="Invalid User Details" sheetId="2" r:id="rId2"/>
-    <sheet name="Valid Assignment Details" sheetId="3" r:id="rId3"/>
+    <sheet name="ValidUserDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidUserDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="108">
   <si>
     <t>First Name</t>
   </si>
@@ -42,9 +41,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>C/O, Apt, Suite, Unit</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -315,7 +311,40 @@
     <t>SDET13</t>
   </si>
   <si>
-    <t>Assignmnent</t>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Emailaddress</t>
+  </si>
+  <si>
+    <t>Phoneno</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UGProgram </t>
+  </si>
+  <si>
+    <t>PGProgram</t>
+  </si>
+  <si>
+    <t>UserRole</t>
+  </si>
+  <si>
+    <t>VisaStatus</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>FileType</t>
   </si>
 </sst>
 </file>
@@ -584,30 +613,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="16" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -619,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
@@ -637,10 +665,10 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
@@ -649,45 +677,45 @@
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>60503</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="J2" s="1">
-        <v>60503</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>30</v>
@@ -698,11 +726,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="1">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="O2" s="1">
-        <v>8</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -710,23 +738,18 @@
       <c r="Q2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -738,9 +761,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -748,25 +773,24 @@
     <col min="4" max="4" width="16.26953125" customWidth="1"/>
     <col min="5" max="5" width="11.36328125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" customWidth="1"/>
-    <col min="12" max="12" width="10.90625" customWidth="1"/>
-    <col min="13" max="13" width="10.26953125" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="8.36328125" customWidth="1"/>
-    <col min="17" max="17" width="9.36328125" customWidth="1"/>
-    <col min="18" max="18" width="7.26953125" customWidth="1"/>
-    <col min="19" max="19" width="9" customWidth="1"/>
-    <col min="20" max="20" width="9.36328125" customWidth="1"/>
-    <col min="21" max="21" width="8.36328125" customWidth="1"/>
-    <col min="22" max="22" width="7.7265625" customWidth="1"/>
+    <col min="7" max="7" width="8.36328125" customWidth="1"/>
+    <col min="8" max="8" width="4.90625" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" customWidth="1"/>
+    <col min="11" max="11" width="10.90625" customWidth="1"/>
+    <col min="12" max="12" width="10.26953125" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="9.36328125" customWidth="1"/>
+    <col min="15" max="15" width="8.36328125" customWidth="1"/>
+    <col min="16" max="16" width="9.36328125" customWidth="1"/>
+    <col min="17" max="17" width="7.26953125" customWidth="1"/>
+    <col min="18" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="9.36328125" customWidth="1"/>
+    <col min="20" max="20" width="8.36328125" customWidth="1"/>
+    <col min="21" max="21" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,37 +854,37 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>60503</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="J2" s="1">
-        <v>60503</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>30</v>
@@ -868,70 +892,70 @@
       <c r="L2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="1">
+      <c r="N2" s="1">
         <v>8</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1">
+        <v>65434</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="1">
-        <v>65434</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="1">
-        <v>3</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>54</v>
@@ -939,117 +963,117 @@
       <c r="Q3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="U3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1">
+        <v>68787</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1">
-        <v>68787</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" s="1">
+      <c r="N4" s="1">
         <v>10</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="U4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="1">
+        <v>87656</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="1">
-        <v>87656</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" s="1">
+      <c r="N5" s="1">
         <v>4</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>34</v>
@@ -1058,51 +1082,48 @@
         <v>35</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="T5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="G6" s="1">
-        <v>234</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="1">
+        <v>54343</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="J6" s="1">
-        <v>54343</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>86</v>
@@ -1110,109 +1131,85 @@
       <c r="M6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="1">
+        <v>8</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O6" s="1">
-        <v>8</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>93</v>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="1">
         <v>60504</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="K7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O7" s="1">
+      <c r="N7" s="1">
         <v>6</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/LMSProject/DataFiles/LMSHackathan.xlsx
+++ b/LMSProject/DataFiles/LMSHackathan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\repository2\LMSProject\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179C4E7A-FC2F-4780-895D-61B0C2EFC0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAE27F4-F90F-4F4F-B23C-930290458D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,22 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="108">
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Email address</t>
-  </si>
-  <si>
-    <t>Phone no</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>Address</t>
   </si>
@@ -44,48 +29,24 @@
     <t>City</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Postal Code</t>
-  </si>
-  <si>
     <t>Program</t>
   </si>
   <si>
-    <t xml:space="preserve">UG Program </t>
-  </si>
-  <si>
-    <t>PG Program</t>
-  </si>
-  <si>
     <t>Skill</t>
   </si>
   <si>
     <t>Experience</t>
   </si>
   <si>
-    <t>User Role</t>
-  </si>
-  <si>
-    <t>Visa Status</t>
-  </si>
-  <si>
     <t>Batch</t>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>User Name</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>File Type</t>
-  </si>
-  <si>
     <t>Vidhya</t>
   </si>
   <si>
@@ -107,9 +68,6 @@
     <t>Aurora</t>
   </si>
   <si>
-    <t>IL</t>
-  </si>
-  <si>
     <t>QA Automation</t>
   </si>
   <si>
@@ -242,9 +200,6 @@
     <t>Orlando</t>
   </si>
   <si>
-    <t>FL</t>
-  </si>
-  <si>
     <t>BECSE</t>
   </si>
   <si>
@@ -273,9 +228,6 @@
   </si>
   <si>
     <t>Columbia</t>
-  </si>
-  <si>
-    <t>SC</t>
   </si>
   <si>
     <t>BSc Comp</t>
@@ -613,142 +565,136 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1">
+        <v>60503</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1">
+        <v>8</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>107</v>
+      <c r="O2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1">
-        <v>60503</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="1">
-        <v>8</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
   </sheetData>
@@ -761,10 +707,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -774,442 +720,420 @@
     <col min="5" max="5" width="11.36328125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="8.36328125" customWidth="1"/>
-    <col min="8" max="8" width="4.90625" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" customWidth="1"/>
-    <col min="10" max="10" width="12.26953125" customWidth="1"/>
-    <col min="11" max="11" width="10.90625" customWidth="1"/>
-    <col min="12" max="12" width="10.26953125" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="9.36328125" customWidth="1"/>
-    <col min="15" max="15" width="8.36328125" customWidth="1"/>
-    <col min="16" max="16" width="9.36328125" customWidth="1"/>
-    <col min="17" max="17" width="7.26953125" customWidth="1"/>
-    <col min="18" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="9.36328125" customWidth="1"/>
-    <col min="20" max="20" width="8.36328125" customWidth="1"/>
-    <col min="21" max="21" width="7.7265625" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="10.90625" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="9.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.36328125" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" customWidth="1"/>
+    <col min="16" max="16" width="7.26953125" customWidth="1"/>
+    <col min="17" max="17" width="9" customWidth="1"/>
+    <col min="18" max="18" width="9.36328125" customWidth="1"/>
+    <col min="19" max="19" width="8.36328125" customWidth="1"/>
+    <col min="20" max="20" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1">
+        <v>60503</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1">
+        <v>65434</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1">
+        <v>68787</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="N4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="1">
+        <v>87656</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="1">
+        <v>54343</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="1">
+        <v>8</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="H7" s="1">
+        <v>60504</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="1">
+        <v>6</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1">
-        <v>60503</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="P7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="N2" s="1">
-        <v>8</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1">
-        <v>65434</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="1">
-        <v>3</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1">
-        <v>68787</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="1">
-        <v>10</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="1">
-        <v>87656</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" s="1">
-        <v>4</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="1">
-        <v>54343</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N6" s="1">
-        <v>8</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="1">
-        <v>60504</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N7" s="1">
-        <v>6</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
